--- a/Tables/VAR_estimates.xlsx
+++ b/Tables/VAR_estimates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -37,13 +37,13 @@
     <t xml:space="preserve">Price.l1</t>
   </si>
   <si>
-    <t xml:space="preserve">1.787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.195</t>
+    <t xml:space="preserve">-0.721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.021</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -52,193 +52,124 @@
     <t xml:space="preserve">Coal.l1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41</t>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873</t>
   </si>
   <si>
     <t xml:space="preserve">Price.l2</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.69</t>
+    <t xml:space="preserve">-0.631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.883</t>
   </si>
   <si>
     <t xml:space="preserve">Coal.l2</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896</t>
+    <t xml:space="preserve">-0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979</t>
   </si>
   <si>
     <t xml:space="preserve">Price.l3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16</t>
+    <t xml:space="preserve">-0.441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.591</t>
   </si>
   <si>
     <t xml:space="preserve">Coal.l3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price.l4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal.l4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-919.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5249.434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16750.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9850.142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19161.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9797.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11443.175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5170.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1005.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">518.925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058</t>
+    <t xml:space="preserve">0.661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -627,27 +558,27 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -655,104 +586,53 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -791,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -808,135 +688,84 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +784,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-319.867</v>
+        <v>-810.721</v>
       </c>
     </row>
   </sheetData>
@@ -974,24 +803,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62.102</v>
+        <v>6.905</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1010,24 +839,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>102.335</v>
+        <v>4.549</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1046,18 +875,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.016</v>
+        <v>14.103</v>
       </c>
       <c r="B2" t="n">
-        <v>677.675</v>
+        <v>1762.562</v>
       </c>
     </row>
   </sheetData>
